--- a/hw3.xlsx
+++ b/hw3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="12800" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>Path length / running time / visited nodes between key locations-Dijkstra</t>
   </si>
@@ -233,6 +233,69 @@
   </si>
   <si>
     <t>113.72/0.31/1862</t>
+  </si>
+  <si>
+    <t>Path length / running time / visited nodes between key locations-GBFS</t>
+  </si>
+  <si>
+    <t>146.12/0.38/4803</t>
+  </si>
+  <si>
+    <t>163.3/0.07/740</t>
+  </si>
+  <si>
+    <t>183.61/0.16/1999</t>
+  </si>
+  <si>
+    <t>241.05/0.48/4094</t>
+  </si>
+  <si>
+    <t>161.38/0.42/4580</t>
+  </si>
+  <si>
+    <t>122.90/0.05/532</t>
+  </si>
+  <si>
+    <t>142.36/0.07/841</t>
+  </si>
+  <si>
+    <t>170.84/0.35/3870</t>
+  </si>
+  <si>
+    <t>174.34/0.11/877</t>
+  </si>
+  <si>
+    <t>120.87/0.05/538</t>
+  </si>
+  <si>
+    <t>255.88/0.19/1367</t>
+  </si>
+  <si>
+    <t>118.54/0.06/531</t>
+  </si>
+  <si>
+    <t>195.40/0.47/5598</t>
+  </si>
+  <si>
+    <t>108.54/0.06/688</t>
+  </si>
+  <si>
+    <t>238.97/0.12/1015</t>
+  </si>
+  <si>
+    <t>208.52/0.34/3195</t>
+  </si>
+  <si>
+    <t>249.60/0.91/8436</t>
+  </si>
+  <si>
+    <t>182.02/0.99/13342</t>
+  </si>
+  <si>
+    <t>131.85/0.07/660</t>
+  </si>
+  <si>
+    <t>120.50/0.10/981</t>
   </si>
 </sst>
 </file>
@@ -1172,10 +1235,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F28"/>
+  <dimension ref="A2:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:F22"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -1569,11 +1632,139 @@
         <v>0</v>
       </c>
     </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:6">
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A35:F35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
